--- a/Data_Map_Lineage_Retail.xlsx
+++ b/Data_Map_Lineage_Retail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft.sharepoint.com/teams/ProjectBabylon/Shared Documents/General/Privacy Lifecycle Management/Private Preview/Walkthroughs &amp; Demos/DemoCatalogScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamestod\source\repos\pyapacheatlas_datamapJotodd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{44FDBB7D-19DB-4019-8A13-9BA48AE8B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4679AC73-8300-4D10-B639-722031DBC706}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085711E-2D21-4534-BE5D-360B552CC4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57570" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulkEntities" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="221">
   <si>
     <t>typeName</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>Entity superTypes</t>
-  </si>
-  <si>
-    <t>valueMinCount</t>
-  </si>
-  <si>
-    <t>valueMaxCount</t>
   </si>
   <si>
     <t>Process</t>
@@ -1072,18 +1066,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,1257 +1100,1257 @@
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>161</v>
       </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>162</v>
       </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>163</v>
       </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>164</v>
       </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>165</v>
       </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>166</v>
       </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>167</v>
       </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>168</v>
       </c>
-      <c r="F11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>169</v>
       </c>
-      <c r="F12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
         <v>170</v>
       </c>
-      <c r="F14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>171</v>
       </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>174</v>
       </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>175</v>
       </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s">
-        <v>77</v>
-      </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
         <v>179</v>
       </c>
-      <c r="F37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
         <v>81</v>
       </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>28</v>
       </c>
       <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
         <v>184</v>
       </c>
-      <c r="F50" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
         <v>185</v>
       </c>
-      <c r="F51" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" t="s">
-        <v>186</v>
-      </c>
-      <c r="F52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
         <v>93</v>
       </c>
-      <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C56" t="s">
         <v>94</v>
       </c>
-      <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
         <v>95</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="F56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
       </c>
-      <c r="C57" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C59" t="s">
         <v>98</v>
       </c>
-      <c r="C58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
         <v>99</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>100</v>
       </c>
-      <c r="F59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
         <v>101</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
         <v>102</v>
       </c>
-      <c r="F60" t="s">
-        <v>155</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
         <v>106</v>
       </c>
-      <c r="C64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
         <v>190</v>
       </c>
-      <c r="F65" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="F67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
         <v>191</v>
       </c>
-      <c r="F66" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="F68" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
         <v>110</v>
       </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C74" t="s">
         <v>196</v>
       </c>
-      <c r="F71" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="F74" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
         <v>197</v>
       </c>
-      <c r="F72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="F75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
-      </c>
-      <c r="F74" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" t="s">
-        <v>199</v>
-      </c>
-      <c r="F75" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2364,39 +2358,39 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -2404,818 +2398,818 @@
         <v>31</v>
       </c>
       <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
         <v>202</v>
       </c>
-      <c r="F78" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="F80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
         <v>203</v>
       </c>
-      <c r="F79" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" t="s">
-        <v>204</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" t="s">
-        <v>205</v>
-      </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>27</v>
       </c>
       <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
         <v>117</v>
       </c>
-      <c r="C82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
         <v>118</v>
       </c>
-      <c r="C83" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>206</v>
-      </c>
-      <c r="F84" t="s">
-        <v>157</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" t="s">
-        <v>157</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" t="s">
-        <v>208</v>
-      </c>
-      <c r="F87" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
         <v>209</v>
       </c>
-      <c r="F88" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="F91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
         <v>210</v>
       </c>
-      <c r="F89" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" t="s">
-        <v>157</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="F92" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" t="s">
         <v>211</v>
       </c>
-      <c r="F91" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" t="s">
-        <v>212</v>
-      </c>
-      <c r="F92" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>28</v>
-      </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" t="s">
-        <v>213</v>
-      </c>
       <c r="F93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>27</v>
       </c>
       <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
         <v>121</v>
       </c>
-      <c r="C94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>28</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="F95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
         <v>122</v>
       </c>
-      <c r="C95" t="s">
-        <v>123</v>
-      </c>
-      <c r="F95" t="s">
-        <v>158</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
         <v>214</v>
       </c>
-      <c r="F96" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" t="s">
+        <v>156</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" t="s">
         <v>215</v>
       </c>
-      <c r="F97" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" t="s">
-        <v>51</v>
-      </c>
-      <c r="F98" t="s">
-        <v>158</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" t="s">
-        <v>158</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="F100" t="s">
-        <v>158</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" t="s">
-        <v>54</v>
-      </c>
-      <c r="F101" t="s">
-        <v>158</v>
-      </c>
-      <c r="G101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" t="s">
-        <v>158</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B104" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" t="s">
-        <v>217</v>
-      </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>28</v>
       </c>
       <c r="B106" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="F106" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>217</v>
+      </c>
+      <c r="F110" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
         <v>124</v>
       </c>
-      <c r="C106" t="s">
-        <v>218</v>
-      </c>
-      <c r="F106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>28</v>
-      </c>
-      <c r="B107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F107" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-      <c r="F108" t="s">
-        <v>159</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="F111" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" t="s">
+        <v>157</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" t="s">
+        <v>130</v>
+      </c>
+      <c r="F115" t="s">
+        <v>157</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" t="s">
+        <v>157</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F117" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" t="s">
+        <v>157</v>
+      </c>
+      <c r="G118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" t="s">
+        <v>88</v>
+      </c>
+      <c r="F120" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" t="s">
+        <v>134</v>
+      </c>
+      <c r="F123" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" t="s">
         <v>110</v>
       </c>
-      <c r="C109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F109" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C124" t="s">
         <v>111</v>
       </c>
-      <c r="C110" t="s">
-        <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>159</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" t="s">
-        <v>127</v>
-      </c>
-      <c r="F111" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" t="s">
-        <v>129</v>
-      </c>
-      <c r="F112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" t="s">
-        <v>130</v>
-      </c>
-      <c r="C113" t="s">
-        <v>130</v>
-      </c>
-      <c r="F113" t="s">
-        <v>159</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" t="s">
-        <v>131</v>
-      </c>
-      <c r="F114" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>28</v>
-      </c>
-      <c r="B115" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" t="s">
-        <v>159</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" t="s">
-        <v>133</v>
-      </c>
-      <c r="C116" t="s">
-        <v>133</v>
-      </c>
-      <c r="F116" t="s">
-        <v>159</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" t="s">
-        <v>53</v>
-      </c>
-      <c r="F117" t="s">
-        <v>159</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>28</v>
-      </c>
-      <c r="B118" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" t="s">
-        <v>135</v>
-      </c>
-      <c r="F118" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" t="s">
-        <v>87</v>
-      </c>
-      <c r="C119" t="s">
-        <v>88</v>
-      </c>
-      <c r="F119" t="s">
-        <v>159</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" t="s">
-        <v>89</v>
-      </c>
-      <c r="C120" t="s">
-        <v>90</v>
-      </c>
-      <c r="F120" t="s">
-        <v>159</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B121" t="s">
-        <v>91</v>
-      </c>
-      <c r="C121" t="s">
-        <v>92</v>
-      </c>
-      <c r="F121" t="s">
-        <v>159</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" t="s">
-        <v>93</v>
-      </c>
-      <c r="F122" t="s">
-        <v>159</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" s="1" t="s">
+      <c r="F124" t="s">
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>28</v>
-      </c>
-      <c r="B123" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>28</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
         <v>112</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>113</v>
       </c>
-      <c r="F124" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125" t="s">
-        <v>114</v>
-      </c>
-      <c r="C125" t="s">
-        <v>115</v>
-      </c>
       <c r="F125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -3226,36 +3220,36 @@
         <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G126" t="s">
         <v>29</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3266,239 +3260,239 @@
         <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>28</v>
       </c>
       <c r="B129" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" t="s">
+        <v>218</v>
+      </c>
+      <c r="F129" t="s">
+        <v>157</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
         <v>56</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
+        <v>219</v>
+      </c>
+      <c r="F130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
         <v>220</v>
       </c>
-      <c r="F129" t="s">
-        <v>159</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" t="s">
-        <v>222</v>
-      </c>
       <c r="F131" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>27</v>
       </c>
       <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
         <v>137</v>
       </c>
-      <c r="C132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>28</v>
-      </c>
-      <c r="B133" t="s">
+      <c r="F133" t="s">
+        <v>158</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" t="s">
+        <v>123</v>
+      </c>
+      <c r="F135" t="s">
+        <v>158</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
         <v>138</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" t="s">
+        <v>158</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137" t="s">
+        <v>158</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
         <v>139</v>
       </c>
-      <c r="F133" t="s">
-        <v>160</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" t="s">
-        <v>45</v>
-      </c>
-      <c r="F134" t="s">
-        <v>160</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>28</v>
-      </c>
-      <c r="B135" t="s">
-        <v>124</v>
-      </c>
-      <c r="C135" t="s">
-        <v>125</v>
-      </c>
-      <c r="F135" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" t="s">
-        <v>140</v>
-      </c>
-      <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>28</v>
-      </c>
-      <c r="B137" t="s">
-        <v>50</v>
-      </c>
-      <c r="C137" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" t="s">
-        <v>160</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>28</v>
-      </c>
-      <c r="B138" t="s">
-        <v>141</v>
-      </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>28</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>28</v>
       </c>
       <c r="B140" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" t="s">
+        <v>158</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
         <v>56</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>57</v>
       </c>
-      <c r="F140" t="s">
-        <v>160</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141" t="s">
-        <v>58</v>
-      </c>
-      <c r="C141" t="s">
-        <v>59</v>
-      </c>
       <c r="F141" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G141" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>28</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -3519,18 +3513,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3553,18 +3547,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -3576,18 +3570,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -3599,18 +3593,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -3622,18 +3616,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -3645,18 +3639,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -3668,18 +3662,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -3691,18 +3685,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3714,18 +3708,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -3737,18 +3731,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -3760,18 +3754,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -3783,18 +3777,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -3806,18 +3800,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3829,18 +3823,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -3852,18 +3846,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -3888,18 +3882,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3922,18 +3916,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -3945,18 +3939,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -3968,18 +3962,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -3991,18 +3985,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -4014,18 +4008,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -4037,18 +4031,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -4060,18 +4054,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -4083,18 +4077,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -4106,18 +4100,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -4129,18 +4123,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -4152,18 +4146,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -4175,18 +4169,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -4198,18 +4192,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -4221,18 +4215,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -4252,23 +4246,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4297,36 +4290,30 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4342,14 +4329,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4366,15 +4353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F9EFE58033E774CA1B30EF250813853" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a4664621e871e72b73f2e06506b8031a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2c47d6ba-1036-421a-a8b0-b4eeb3f6535e" xmlns:ns3="526c761e-e527-4225-a993-df00ad40956a" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns5="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dba3eb209c1a3605e317d39aff32fc30" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4652,15 +4630,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D3CF499-AF2E-4B06-B32D-F81E7F4F04E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40E945F-829C-4CFF-8E93-81A543CD272B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4682,6 +4661,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D3CF499-AF2E-4B06-B32D-F81E7F4F04E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
